--- a/06.project/data/rawdata/주유소/동구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/동구_주유소_현황.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="6468"/>
   </bookViews>
   <sheets>
     <sheet name="석유판매업대장 현황" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -73,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소재지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +130,18 @@
   </si>
   <si>
     <t>부산광역시 동구 성남로 74 (범일동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,188 +687,186 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>3</v>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>4</v>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>6</v>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>7</v>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
